--- a/cbrunner/Parameters/Parameters_CostsAndPrices.xlsx
+++ b/cbrunner/Parameters/Parameters_CostsAndPrices.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB155D8-778E-4361-B4C6-846BB1FB25B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523A59E3-6E8B-457A-8127-293E8B8FD570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tables" sheetId="14" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -955,40 +955,40 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="3" width="14.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="17.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="23" width="9.109375" style="1"/>
-    <col min="24" max="24" width="11.5546875" style="1" customWidth="1"/>
-    <col min="25" max="32" width="9.109375" style="1"/>
-    <col min="33" max="35" width="9.109375" style="12"/>
-    <col min="36" max="36" width="9.109375" style="1"/>
-    <col min="37" max="37" width="8.88671875" style="1"/>
-    <col min="38" max="39" width="9.109375" style="1"/>
-    <col min="40" max="40" width="8.88671875" style="1"/>
-    <col min="41" max="42" width="9.109375" style="1"/>
-    <col min="43" max="44" width="8.88671875" style="1"/>
-    <col min="45" max="45" width="9.109375" style="1"/>
-    <col min="46" max="46" width="10.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="11.5703125" style="1" customWidth="1"/>
+    <col min="25" max="32" width="9.140625" style="1"/>
+    <col min="33" max="35" width="9.140625" style="12"/>
+    <col min="36" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="8.85546875" style="1"/>
+    <col min="38" max="39" width="9.140625" style="1"/>
+    <col min="40" max="40" width="8.85546875" style="1"/>
+    <col min="41" max="42" width="9.140625" style="1"/>
+    <col min="43" max="44" width="8.85546875" style="1"/>
+    <col min="45" max="45" width="9.140625" style="1"/>
+    <col min="46" max="46" width="10.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1901</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1902</v>
@@ -1373,7 +1373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>1903</v>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1904</v>
@@ -1619,7 +1619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>1905</v>
@@ -1742,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1906</v>
@@ -1865,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1907</v>
@@ -1988,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1908</v>
@@ -2111,7 +2111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1909</v>
@@ -2234,7 +2234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1910</v>
@@ -2357,7 +2357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1911</v>
@@ -2480,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1912</v>
@@ -2603,7 +2603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1913</v>
@@ -2726,7 +2726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>1914</v>
@@ -2849,7 +2849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>1915</v>
@@ -2972,7 +2972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>1916</v>
@@ -3095,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>1917</v>
@@ -3218,7 +3218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>1918</v>
@@ -3341,7 +3341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>1919</v>
@@ -3464,7 +3464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>1920</v>
@@ -3587,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>1921</v>
@@ -3710,7 +3710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>1922</v>
@@ -3833,7 +3833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>1923</v>
@@ -3956,7 +3956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>1924</v>
@@ -4079,7 +4079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>1925</v>
@@ -4202,7 +4202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>1926</v>
@@ -4325,7 +4325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>1927</v>
@@ -4448,7 +4448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>1928</v>
@@ -4571,7 +4571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>1929</v>
@@ -4694,7 +4694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>1930</v>
@@ -4817,7 +4817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>1931</v>
@@ -4940,7 +4940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>1932</v>
@@ -5063,7 +5063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>1933</v>
@@ -5186,7 +5186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>1934</v>
@@ -5309,7 +5309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>1935</v>
@@ -5432,7 +5432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>1936</v>
@@ -5555,7 +5555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>1937</v>
@@ -5678,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>1938</v>
@@ -5801,7 +5801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>1939</v>
@@ -5924,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>1940</v>
@@ -6047,7 +6047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>1941</v>
@@ -6170,7 +6170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>1942</v>
@@ -6293,7 +6293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>1943</v>
@@ -6416,7 +6416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>1944</v>
@@ -6539,7 +6539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>1945</v>
@@ -6662,7 +6662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>1946</v>
@@ -6785,7 +6785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>1947</v>
@@ -6908,7 +6908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>1948</v>
@@ -7031,7 +7031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>1949</v>
@@ -7154,7 +7154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>1950</v>
@@ -7277,7 +7277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>1951</v>
@@ -7400,7 +7400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>1952</v>
@@ -7523,7 +7523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>1953</v>
@@ -7646,7 +7646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>1954</v>
@@ -7769,7 +7769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>1955</v>
@@ -7892,7 +7892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>1956</v>
@@ -8015,7 +8015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>1957</v>
@@ -8138,7 +8138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>1958</v>
@@ -8261,7 +8261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>1959</v>
@@ -8384,7 +8384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>1960</v>
@@ -8507,7 +8507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>1961</v>
@@ -8630,7 +8630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>1962</v>
@@ -8753,7 +8753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>1963</v>
@@ -8876,7 +8876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>1964</v>
@@ -8999,7 +8999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>1965</v>
@@ -9122,7 +9122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>1966</v>
@@ -9245,7 +9245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>1967</v>
@@ -9368,7 +9368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" si="1"/>
         <v>1968</v>
@@ -9491,7 +9491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="1"/>
         <v>1969</v>
@@ -9614,7 +9614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -9737,7 +9737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="1"/>
         <v>1971</v>
@@ -9860,7 +9860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="1"/>
         <v>1972</v>
@@ -9983,7 +9983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="1"/>
         <v>1973</v>
@@ -10106,7 +10106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="1"/>
         <v>1974</v>
@@ -10229,7 +10229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="1"/>
         <v>1975</v>
@@ -10352,7 +10352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="1"/>
         <v>1976</v>
@@ -10475,7 +10475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="1"/>
         <v>1977</v>
@@ -10598,7 +10598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="1"/>
         <v>1978</v>
@@ -10721,7 +10721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="1"/>
         <v>1979</v>
@@ -10844,7 +10844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>1980</v>
@@ -10967,7 +10967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>1981</v>
@@ -11090,7 +11090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>1982</v>
@@ -11213,7 +11213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>1983</v>
@@ -11336,7 +11336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>1984</v>
@@ -11459,7 +11459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>1985</v>
@@ -11582,7 +11582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>1986</v>
@@ -11705,7 +11705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>1987</v>
@@ -11828,7 +11828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>1988</v>
@@ -11951,7 +11951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>1989</v>
@@ -12074,7 +12074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -12197,7 +12197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -12320,7 +12320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -12443,7 +12443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>1993</v>
@@ -12566,7 +12566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>1994</v>
@@ -12689,7 +12689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>1995</v>
@@ -12812,7 +12812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="1"/>
         <v>1996</v>
@@ -12935,7 +12935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="1"/>
         <v>1997</v>
@@ -13058,7 +13058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="1"/>
         <v>1998</v>
@@ -13181,7 +13181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="1"/>
         <v>1999</v>
@@ -13304,7 +13304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -13427,7 +13427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="1"/>
         <v>2001</v>
@@ -13550,7 +13550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="1"/>
         <v>2002</v>
@@ -13673,7 +13673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="1"/>
         <v>2003</v>
@@ -13796,7 +13796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="1"/>
         <v>2004</v>
@@ -13919,7 +13919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="1"/>
         <v>2005</v>
@@ -14042,7 +14042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -14165,7 +14165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="1"/>
         <v>2007</v>
@@ -14288,7 +14288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="1"/>
         <v>2008</v>
@@ -14411,7 +14411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="1"/>
         <v>2009</v>
@@ -14534,7 +14534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="1"/>
         <v>2010</v>
@@ -14658,7 +14658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -14782,7 +14782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="1"/>
         <v>2012</v>
@@ -14906,7 +14906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -15030,7 +15030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="1"/>
         <v>2014</v>
@@ -15154,7 +15154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="1"/>
         <v>2015</v>
@@ -15278,7 +15278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="1"/>
         <v>2016</v>
@@ -15402,7 +15402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="1"/>
         <v>2017</v>
@@ -15526,7 +15526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="1"/>
         <v>2018</v>
@@ -15650,7 +15650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="1"/>
         <v>2019</v>
@@ -15774,7 +15774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="1"/>
         <v>2020</v>
@@ -15898,7 +15898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="1"/>
         <v>2021</v>
@@ -16022,7 +16022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="1"/>
         <v>2022</v>
@@ -16146,7 +16146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="1"/>
         <v>2023</v>
@@ -16269,7 +16269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="1"/>
         <v>2024</v>
@@ -16392,7 +16392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="1"/>
         <v>2025</v>
@@ -16515,7 +16515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="1"/>
         <v>2026</v>
@@ -16638,7 +16638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="1"/>
         <v>2027</v>
@@ -16761,7 +16761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="1"/>
         <v>2028</v>
@@ -16884,7 +16884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="1"/>
         <v>2029</v>
@@ -17007,7 +17007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="1"/>
         <v>2030</v>
@@ -17130,7 +17130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" ref="A132:A195" si="3">A131+1</f>
         <v>2031</v>
@@ -17253,7 +17253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="3"/>
         <v>2032</v>
@@ -17376,7 +17376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="3"/>
         <v>2033</v>
@@ -17499,7 +17499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="3"/>
         <v>2034</v>
@@ -17622,7 +17622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="3"/>
         <v>2035</v>
@@ -17745,7 +17745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="3"/>
         <v>2036</v>
@@ -17868,7 +17868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="3"/>
         <v>2037</v>
@@ -17991,7 +17991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="3"/>
         <v>2038</v>
@@ -18114,7 +18114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="3"/>
         <v>2039</v>
@@ -18237,7 +18237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="3"/>
         <v>2040</v>
@@ -18360,7 +18360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="3"/>
         <v>2041</v>
@@ -18483,7 +18483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="3"/>
         <v>2042</v>
@@ -18606,7 +18606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="3"/>
         <v>2043</v>
@@ -18729,7 +18729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="3"/>
         <v>2044</v>
@@ -18852,7 +18852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="3"/>
         <v>2045</v>
@@ -18975,7 +18975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="3"/>
         <v>2046</v>
@@ -19098,7 +19098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="3"/>
         <v>2047</v>
@@ -19221,7 +19221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="3"/>
         <v>2048</v>
@@ -19344,7 +19344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="3"/>
         <v>2049</v>
@@ -19467,7 +19467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="3"/>
         <v>2050</v>
@@ -19590,7 +19590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="3"/>
         <v>2051</v>
@@ -19713,7 +19713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="3"/>
         <v>2052</v>
@@ -19836,7 +19836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="3"/>
         <v>2053</v>
@@ -19959,7 +19959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="3"/>
         <v>2054</v>
@@ -20082,7 +20082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="3"/>
         <v>2055</v>
@@ -20205,7 +20205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="3"/>
         <v>2056</v>
@@ -20328,7 +20328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="3"/>
         <v>2057</v>
@@ -20451,7 +20451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="3"/>
         <v>2058</v>
@@ -20574,7 +20574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="3"/>
         <v>2059</v>
@@ -20697,7 +20697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="3"/>
         <v>2060</v>
@@ -20820,7 +20820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="3"/>
         <v>2061</v>
@@ -20943,7 +20943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="3"/>
         <v>2062</v>
@@ -21066,7 +21066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="3"/>
         <v>2063</v>
@@ -21189,7 +21189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="3"/>
         <v>2064</v>
@@ -21312,7 +21312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="3"/>
         <v>2065</v>
@@ -21435,7 +21435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="3"/>
         <v>2066</v>
@@ -21558,7 +21558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="3"/>
         <v>2067</v>
@@ -21681,7 +21681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="3"/>
         <v>2068</v>
@@ -21804,7 +21804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="3"/>
         <v>2069</v>
@@ -21927,7 +21927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="3"/>
         <v>2070</v>
@@ -22050,7 +22050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="3"/>
         <v>2071</v>
@@ -22173,7 +22173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="3"/>
         <v>2072</v>
@@ -22296,7 +22296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="3"/>
         <v>2073</v>
@@ -22419,7 +22419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <f t="shared" si="3"/>
         <v>2074</v>
@@ -22542,7 +22542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="3"/>
         <v>2075</v>
@@ -22665,7 +22665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <f t="shared" si="3"/>
         <v>2076</v>
@@ -22788,7 +22788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="3"/>
         <v>2077</v>
@@ -22911,7 +22911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="3"/>
         <v>2078</v>
@@ -23034,7 +23034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="3"/>
         <v>2079</v>
@@ -23157,7 +23157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="3"/>
         <v>2080</v>
@@ -23280,7 +23280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="3"/>
         <v>2081</v>
@@ -23403,7 +23403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="3"/>
         <v>2082</v>
@@ -23526,7 +23526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="3"/>
         <v>2083</v>
@@ -23649,7 +23649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="3"/>
         <v>2084</v>
@@ -23772,7 +23772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="3"/>
         <v>2085</v>
@@ -23895,7 +23895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="3"/>
         <v>2086</v>
@@ -24018,7 +24018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="3"/>
         <v>2087</v>
@@ -24141,7 +24141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="3"/>
         <v>2088</v>
@@ -24264,7 +24264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="3"/>
         <v>2089</v>
@@ -24387,7 +24387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="3"/>
         <v>2090</v>
@@ -24510,7 +24510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="3"/>
         <v>2091</v>
@@ -24633,7 +24633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="3"/>
         <v>2092</v>
@@ -24756,7 +24756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="3"/>
         <v>2093</v>
@@ -24879,7 +24879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="3"/>
         <v>2094</v>
@@ -25002,7 +25002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" ref="A196:A251" si="4">A195+1</f>
         <v>2095</v>
@@ -25125,7 +25125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" si="4"/>
         <v>2096</v>
@@ -25248,7 +25248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="4"/>
         <v>2097</v>
@@ -25371,7 +25371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="4"/>
         <v>2098</v>
@@ -25494,7 +25494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="4"/>
         <v>2099</v>
@@ -25617,7 +25617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="4"/>
         <v>2100</v>
@@ -25740,7 +25740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="4"/>
         <v>2101</v>
@@ -25863,7 +25863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="4"/>
         <v>2102</v>
@@ -25986,7 +25986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="4"/>
         <v>2103</v>
@@ -26109,7 +26109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="4"/>
         <v>2104</v>
@@ -26232,7 +26232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="4"/>
         <v>2105</v>
@@ -26355,7 +26355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="4"/>
         <v>2106</v>
@@ -26478,7 +26478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="4"/>
         <v>2107</v>
@@ -26601,7 +26601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="4"/>
         <v>2108</v>
@@ -26724,7 +26724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="4"/>
         <v>2109</v>
@@ -26847,7 +26847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="4"/>
         <v>2110</v>
@@ -26970,7 +26970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="4"/>
         <v>2111</v>
@@ -27093,7 +27093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="4"/>
         <v>2112</v>
@@ -27216,7 +27216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="4"/>
         <v>2113</v>
@@ -27339,7 +27339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <f t="shared" si="4"/>
         <v>2114</v>
@@ -27462,7 +27462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <f t="shared" si="4"/>
         <v>2115</v>
@@ -27585,7 +27585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <f t="shared" si="4"/>
         <v>2116</v>
@@ -27708,7 +27708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <f t="shared" si="4"/>
         <v>2117</v>
@@ -27831,7 +27831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" si="4"/>
         <v>2118</v>
@@ -27954,7 +27954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="4"/>
         <v>2119</v>
@@ -28077,7 +28077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="4"/>
         <v>2120</v>
@@ -28200,7 +28200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="4"/>
         <v>2121</v>
@@ -28323,7 +28323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="4"/>
         <v>2122</v>
@@ -28446,7 +28446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <f t="shared" si="4"/>
         <v>2123</v>
@@ -28569,7 +28569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <f t="shared" si="4"/>
         <v>2124</v>
@@ -28692,7 +28692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <f t="shared" si="4"/>
         <v>2125</v>
@@ -28815,7 +28815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <f t="shared" si="4"/>
         <v>2126</v>
@@ -28938,7 +28938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <f t="shared" si="4"/>
         <v>2127</v>
@@ -29061,7 +29061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <f t="shared" si="4"/>
         <v>2128</v>
@@ -29184,7 +29184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <f t="shared" si="4"/>
         <v>2129</v>
@@ -29307,7 +29307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <f t="shared" si="4"/>
         <v>2130</v>
@@ -29430,7 +29430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <f t="shared" si="4"/>
         <v>2131</v>
@@ -29553,7 +29553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <f t="shared" si="4"/>
         <v>2132</v>
@@ -29676,7 +29676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <f t="shared" si="4"/>
         <v>2133</v>
@@ -29799,7 +29799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <f t="shared" si="4"/>
         <v>2134</v>
@@ -29922,7 +29922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <f t="shared" si="4"/>
         <v>2135</v>
@@ -30045,7 +30045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <f t="shared" si="4"/>
         <v>2136</v>
@@ -30168,7 +30168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <f t="shared" si="4"/>
         <v>2137</v>
@@ -30291,7 +30291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <f t="shared" si="4"/>
         <v>2138</v>
@@ -30414,7 +30414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <f t="shared" si="4"/>
         <v>2139</v>
@@ -30537,7 +30537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <f t="shared" si="4"/>
         <v>2140</v>
@@ -30660,7 +30660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <f t="shared" si="4"/>
         <v>2141</v>
@@ -30783,7 +30783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <f t="shared" si="4"/>
         <v>2142</v>
@@ -30906,7 +30906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <f t="shared" si="4"/>
         <v>2143</v>
@@ -31029,7 +31029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <f t="shared" si="4"/>
         <v>2144</v>
@@ -31152,7 +31152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <f t="shared" si="4"/>
         <v>2145</v>
@@ -31275,7 +31275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <f t="shared" si="4"/>
         <v>2146</v>
@@ -31398,7 +31398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <f t="shared" si="4"/>
         <v>2147</v>
@@ -31521,7 +31521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <f t="shared" si="4"/>
         <v>2148</v>
@@ -31644,7 +31644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <f t="shared" si="4"/>
         <v>2149</v>
@@ -31767,7 +31767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <f t="shared" si="4"/>
         <v>2150</v>
@@ -31904,16 +31904,16 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="9" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>78</v>
       </c>
@@ -31926,7 +31926,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -31955,7 +31955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2018</v>
       </c>
@@ -31972,7 +31972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2019</v>
       </c>
@@ -31989,7 +31989,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2020</v>
       </c>
@@ -32006,7 +32006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>2021</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2022</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>2023</v>
       </c>
@@ -32057,7 +32057,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>2024</v>
       </c>
@@ -32065,7 +32065,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
@@ -32078,7 +32078,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:20" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
@@ -32140,7 +32140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -32202,10 +32202,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>99</v>
       </c>
@@ -32218,7 +32218,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>0</v>
       </c>
@@ -32244,7 +32244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -32276,10 +32276,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>102</v>
       </c>
@@ -32292,7 +32292,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -32306,13 +32306,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -32326,7 +32326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -32341,7 +32341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -32353,12 +32353,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -32372,7 +32372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -32387,7 +32387,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -32399,12 +32399,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -32416,7 +32416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -32427,7 +32427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -32439,12 +32439,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
@@ -32461,7 +32461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -32481,7 +32481,7 @@
         <v>60.202134334272628</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -32501,7 +32501,7 @@
         <v>9.9801719142360454</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>104</v>
       </c>
@@ -32514,7 +32514,7 @@
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -32528,7 +32528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2019</v>
       </c>
@@ -32556,7 +32556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2019</v>
       </c>
@@ -32570,7 +32570,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2019</v>
       </c>
@@ -32598,7 +32598,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2019</v>
       </c>
@@ -32612,7 +32612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2019</v>
       </c>
@@ -32626,7 +32626,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
@@ -32646,6 +32646,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="28d05e5e-83e5-43fa-b776-ecf549f0f900">
@@ -32654,15 +32663,6 @@
     <TaxCatchAll xmlns="190721be-1935-4f66-90f6-2b87f3c52e2a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32903,20 +32903,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{556B3ED8-5872-4DBA-AE92-95C3A92C4E1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41079E1A-94A9-4BE9-AEE9-B1D06EEA1552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="28d05e5e-83e5-43fa-b776-ecf549f0f900"/>
     <ds:schemaRef ds:uri="190721be-1935-4f66-90f6-2b87f3c52e2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{556B3ED8-5872-4DBA-AE92-95C3A92C4E1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
